--- a/data/regression_name_list713.xlsx
+++ b/data/regression_name_list713.xlsx
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
